--- a/Documentation/10 - Skabeloner/Tidsregistrering i PTE projektet.xlsx
+++ b/Documentation/10 - Skabeloner/Tidsregistrering i PTE projektet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulla\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Deltagere">Deltagere!$A$1:$A$16</definedName>
     <definedName name="GyldigeRoller">'Gyldige roller'!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>TIDSREGISTRERING FOR PTE-PROJEKTET (6-3-2017  -  24-3-2017)</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>DK + UL</t>
+  </si>
+  <si>
+    <t>UC1 DOM + DD</t>
   </si>
 </sst>
 </file>
@@ -239,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,6 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,22 +579,22 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="11" max="11" width="31.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -597,7 +607,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -608,7 +618,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -631,64 +641,81 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42800</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42801</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
   </sheetData>
@@ -715,12 +742,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -738,87 +765,87 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -836,157 +863,157 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
